--- a/src/test/resources/com/obsquara/testdata/TestDatafile.xlsx
+++ b/src/test/resources/com/obsquara/testdata/TestDatafile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="2505" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Invalidusernameandpassword" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <sheet name="Newuserdata" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N6"/>
 </workbook>
 </file>
 
@@ -557,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -613,7 +614,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/com/obsquara/testdata/TestDatafile.xlsx
+++ b/src/test/resources/com/obsquara/testdata/TestDatafile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="2505" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="4785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Invalidusernameandpassword" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N6"/>
+  <oleSize ref="A1:M6"/>
 </workbook>
 </file>
 
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
